--- a/Muscoli inserzioni arti inferiori.xlsx
+++ b/Muscoli inserzioni arti inferiori.xlsx
@@ -58,48 +58,7 @@
     <t xml:space="preserve">Muscolo gastrocnemio o gemelli</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Gemello laterale</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: epicondilo laterale del femore, piano popliteo e porzione posteriore della capsula articolare del ginocchio. </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Gemello mediale</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: epicondilo mediale del femore, piano popliteo e porzione corrispondente della capsula articolare del ginocchio </t>
-    </r>
+    <t xml:space="preserve">Gemello laterale: epicondilo laterale del femore, piano popliteo e porzione posteriore della capsula articolare del ginocchio. Gemello mediale: epicondilo mediale del femore, piano popliteo e porzione corrispondente della capsula articolare del ginocchio </t>
   </si>
   <si>
     <t xml:space="preserve">Nel tendine calcaneare (o d'Achille) sul terzo medio della faccia posteriore del calcagno</t>
@@ -204,69 +163,7 @@
     <t xml:space="preserve">estensore lungo delle dita</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. superficie anteriore del condilo laterale della tibia, </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> margine mediale sezione prossimale del perone, </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> membrana interossea</t>
-    </r>
+    <t xml:space="preserve">1. superficie anteriore del condilo laterale della tibia, 2. margine mediale sezione prossimale del perone, 3. membrana interossea</t>
   </si>
   <si>
     <t xml:space="preserve">Da un tendine principale, che passa sotto i legamenti del collo del piede, derivano 4 tendini secondari. Questi tendini secondari terminano con 3 linguette (mediale, mediana e laterale), sulla faccia dorsale delle falangi delle ultime 4 dita. Nella fattispecie, le linguette mediale e laterale raggiungono la faccia dorsale della base della 3a falange, mentre la linguetta mediana arriva fino alla faccia dorsale della base della 2a falange.</t>
@@ -275,48 +172,7 @@
     <t xml:space="preserve">tibiale anteriore</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. estendere le falangi delle ultime 4 dita, </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Concorre al movimento di dorsiflessione, con leggera rotazione verso l'esterno del piede (leggera eversione)</t>
-    </r>
+    <t xml:space="preserve">1. estendere le falangi delle ultime 4 dita, 2. Concorre al movimento di dorsiflessione, con leggera rotazione verso l'esterno del piede (leggera eversione)</t>
   </si>
   <si>
     <t xml:space="preserve">estensore lungo dell'alluce</t>
@@ -328,48 +184,7 @@
     <t xml:space="preserve">il tendine penetra nel piede, passa sotto i legamenti del collo del piede e s'inserisce sulle due falangi dell'alluce. Nel suo attraversamento del piede, si unisce al tendine del muscolo estensore breve delle dita</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. estendere le falangi dell'alluce, </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Concorre al movimento di dorsiflessione, con leggera rotazione verso l'interno del piede (leggera inversione)</t>
-    </r>
+    <t xml:space="preserve">1. estendere le falangi dell'alluce, 2. Concorre al movimento di dorsiflessione, con leggera rotazione verso l'interno del piede (leggera inversione)</t>
   </si>
   <si>
     <t xml:space="preserve">tibiale anteriore (adduttore della gamba)</t>
@@ -462,48 +277,7 @@
     <t xml:space="preserve">peroneo superficiale</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. plantarflessione e all'inversione, </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. accentua la concavità dell'arco (o volta) plantare</t>
-    </r>
+    <t xml:space="preserve">1. plantarflessione e all'inversione, 2. accentua la concavità dell'arco (o volta) plantare</t>
   </si>
   <si>
     <t xml:space="preserve">peroneo breve (flessore plantare)</t>
@@ -524,48 +298,7 @@
     <t xml:space="preserve">Grande psoas (fa parte dei muscoli anteriori)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Superfici</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> laterali dei corpi T12 e della L1-4 e dai dischi intervertebrali interposti. Parte </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">profonda</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> origina dai processi costiformi L1 e L5</t>
-    </r>
+    <t xml:space="preserve">Superfici laterali dei corpi T12 e della L1-4 e dai dischi intervertebrali interposti. Parte profonda origina dai processi costiformi L1 e L5</t>
   </si>
   <si>
     <t xml:space="preserve">Superficie mediale del piccolo trocantere del femore passando sotto il legamento inguinale</t>
@@ -640,48 +373,7 @@
     <t xml:space="preserve">Grande gluteo</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Parte superficiale</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: dal labbro esterno della cresta iliaca, dalla spina iliaca posteriore superiore, dalla fascia toracolombare (o lombodorsale), dalla faccia posteriore dell'osso sacro e dal coccige.   </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Parte profonda</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: dall'ala dell'ileo, dietro la linea glutea posteriore, dal legamento sacrotuberoso (o sacroiliaco) e dalla fascia del muscolo medio gluteo . </t>
-    </r>
+    <t xml:space="preserve">Parte superficiale: dal labbro esterno della cresta iliaca, dalla spina iliaca posteriore superiore, dalla fascia toracolombare (o lombodorsale), dalla faccia posteriore dell'osso sacro e dal coccige.   Parte profonda: dall'ala dell'ileo, dietro la linea glutea posteriore, dal legamento sacrotuberoso (o sacroiliaco) e dalla fascia del muscolo medio gluteo . </t>
   </si>
   <si>
     <t xml:space="preserve">Tuberosità glutea (parte prossimale) e tratto ileo-tibiale fascia lata (parte distale).</t>
@@ -720,58 +412,7 @@
     <t xml:space="preserve">I fasci conver­gono verso il piccolo forame ischiatico dove ri­piegano lateralmente ad angolo retto per inse­rirsi nella fossa trocanterica del femore</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">otturatorio interno (L</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-S</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
+    <t xml:space="preserve">otturatorio interno (L5-S1)</t>
   </si>
   <si>
     <t xml:space="preserve">ruota lateralmente il femore e contribuisce alla stabilizzazione dell’articolazione dell’anca</t>
@@ -792,48 +433,7 @@
     <t xml:space="preserve">cresta intertrocanterica del femore</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ramo collaterale del plesso sacrale L</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-S</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
+    <t xml:space="preserve">ramo collaterale del plesso sacrale L4-S1</t>
   </si>
   <si>
     <t xml:space="preserve">Agisce ruotando lateralmente il femore e contribuisce a stabiliz­zare l’articolazione dell’anca</t>
@@ -953,48 +553,7 @@
     <t xml:space="preserve">Retto femorale o retto anteriore</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Capo diretto</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: spina iliaca anteriore inferiore </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Capo riflesso</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: solco sopraacetabolare (margine superiore dell'acetabolo)</t>
-    </r>
+    <t xml:space="preserve">Capo diretto: spina iliaca anteriore inferiore Capo riflesso: solco sopraacetabolare (margine superiore dell'acetabolo)</t>
   </si>
   <si>
     <t xml:space="preserve">Patella (alcune fibre formano il legamento patellare e si inseriscono alla tuberosità della tibia)</t>
@@ -1048,48 +607,7 @@
     <t xml:space="preserve">Bicipite femorale</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Capo lungo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: parte superiore della tuberosità ischiatica </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Capo breve</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: labbro laterale della linea aspra del femore e dal setto intermuscolare laterale</t>
-    </r>
+    <t xml:space="preserve">Capo lungo: parte superiore della tuberosità ischiatica Capo breve: labbro laterale della linea aspra del femore e dal setto intermuscolare laterale</t>
   </si>
   <si>
     <t xml:space="preserve">Con un tendine comune sul processo stiloideo della testa della fibula, sul condilo laterale della tibia e sulle parti contigue della faccia della gamba</t>
@@ -1107,80 +625,7 @@
     <t xml:space="preserve">Tuberosità ischiatica</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> parte posteriore del condilo mediale tibiale (tendine riflesso e discendente), </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> legamento popliteo obliquo, </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> parte anteriore del condilo mediale della tibia (tendine ricorrente)/fascia muscolo popliteo --- queste tre inserzioni vengono chiamate </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Zampa d'oca profonda</t>
-    </r>
+    <t xml:space="preserve">1 parte posteriore del condilo mediale tibiale (tendine riflesso e discendente), 2 legamento popliteo obliquo, 3 parte anteriore del condilo mediale della tibia (tendine ricorrente)/fascia muscolo popliteo --- queste tre inserzioni vengono chiamate Zampa d'oca profonda</t>
   </si>
   <si>
     <t xml:space="preserve">Estende e adduce la coscia; flette e ruota internamente (a ginocchio flesso) la gamba</t>
@@ -1204,92 +649,10 @@
     <t xml:space="preserve">Abduttore dell'alluce</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> processo mediale della tuberosità calcaneare e </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> retinacolo dei mm. Fressori e aponeurosi plantare</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> osso sesamoide mediale e </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> flange prossimale</t>
-    </r>
+    <t xml:space="preserve">1) processo mediale della tuberosità calcaneare e 2) retinacolo dei mm. Fressori e aponeurosi plantare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) osso sesamoide mediale e 2) flange prossimale</t>
   </si>
   <si>
     <t xml:space="preserve">plantare mediale</t>
@@ -1301,26 +664,7 @@
     <t xml:space="preserve">flessore breve dell'alluce</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">osso cuneiforme mediale, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">dal legamento plantare lungo e dal tendine del tibiale posteriore</t>
-    </r>
+    <t xml:space="preserve">osso cuneiforme mediale, dal legamento plantare lungo e dal tendine del tibiale posteriore</t>
   </si>
   <si>
     <t xml:space="preserve">1) capo mediale: fonde parzialmente con il m. abduttore dell'alluce e raggiunge l'osso sesamoide mediale; 2) capo laterale: fuso parzialmente con adduttore dell'alluce e raggiunge l'osso sesamoide laterale e la falange prossimale</t>
@@ -1332,48 +676,7 @@
     <t xml:space="preserve">Adduttore dell'alluce (sotto i mm. Flessori lungo e breve delle dita)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">capo obliquo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: cuboide, osso cuneiforme laterale e basi delle ossa metatarsali II e III; </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">capo trasverso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> legg capsulari delle art. metatarso falangee delle dita 3°-5° e leg. Metatarsale trasverso profondo</t>
-    </r>
+    <t xml:space="preserve">capo obliquo: cuboide, osso cuneiforme laterale e basi delle ossa metatarsali II e III; capo trasverso: legg capsulari delle art. metatarso falangee delle dita 3°-5° e leg. Metatarsale trasverso profondo</t>
   </si>
   <si>
     <t xml:space="preserve">osso sesamoide laterale dell'alluce</t>
@@ -1454,92 +757,10 @@
     <t xml:space="preserve">interossei plantari e dorsali</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">platari</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: lato mediale del 3°-5° osso metatarsale; </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">dorsali:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> facce affondate delle orssa metatarsali e leg. Plantare lungo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">plantari</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: lato mediale delle basi delle falangi prossimali del 3°-5° dito; </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">dorsali:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> basi delle falangi prossimali 2°-4° dito</t>
-    </r>
+    <t xml:space="preserve">platari: lato mediale del 3°-5° osso metatarsale; dorsali: facce affondate delle orssa metatarsali e leg. Plantare lungo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plantari: lato mediale delle basi delle falangi prossimali del 3°-5° dito; dorsali: basi delle falangi prossimali 2°-4° dito</t>
   </si>
   <si>
     <t xml:space="preserve">plantari: adduttori (avvicinano 3°, 4° e 5° dito al 2° dito); dorsali: abduttori</t>
@@ -1567,7 +788,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1591,36 +812,7 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1636,19 +828,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -1677,69 +862,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1759,1287 +892,1196 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AMJ55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="52.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="41.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="42.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="52.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="42.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="34.01"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AMF1" s="1"/>
-      <c r="AMG1" s="1"/>
-      <c r="AMH1" s="1"/>
-      <c r="AMI1" s="1"/>
-      <c r="AMJ1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="57.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="42.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="94.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="42.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" customFormat="false" ht="23.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="39.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" customFormat="false" ht="42.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" customFormat="false" ht="46.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H55" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
